--- a/Examples/tgas/tgas_model.xlsx
+++ b/Examples/tgas/tgas_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\tgas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\tgas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E8BEDD-6045-4DDD-A9F1-FCC96C7FD6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE48963-7B56-4BBB-8F20-CC912FECA1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="22380" windowHeight="12525" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="2070" windowWidth="18510" windowHeight="12270" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="8" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>key</t>
   </si>
@@ -292,9 +292,6 @@
     <t>B3-B2</t>
   </si>
   <si>
-    <t>ECTR</t>
-  </si>
-  <si>
     <t>recycle</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>WC+WN</t>
+  </si>
+  <si>
+    <t>TGASR</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1050,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -1067,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -1087,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1101,10 +1101,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1121,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,12 +1182,12 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>36620</v>
@@ -1297,12 +1297,12 @@
         <v>888.2</v>
       </c>
       <c r="G6">
-        <v>548.6</v>
+        <v>11707</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>10225</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>7168</v>
@@ -1366,12 +1366,12 @@
         <v>7168</v>
       </c>
       <c r="G9">
-        <v>7545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>835.3</v>
@@ -1389,7 +1389,7 @@
         <v>888.2</v>
       </c>
       <c r="G10">
-        <v>548.6</v>
+        <v>11707</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,12 +1537,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -1566,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,9 +1638,10 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1653,10 +1654,13 @@
       <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -1667,8 +1671,11 @@
       <c r="D2">
         <v>1.0820000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1681,8 +1688,11 @@
       <c r="D3">
         <v>141.91999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>141.91999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1695,8 +1705,11 @@
       <c r="D4">
         <v>1216.3800000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1216.3800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1709,8 +1722,11 @@
       <c r="D5">
         <v>1662.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1662.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1724,8 +1740,11 @@
       <c r="D6">
         <v>1076.47</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1737,6 +1756,9 @@
       </c>
       <c r="D7">
         <v>8715.56</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/tgas/tgas_model.xlsx
+++ b/Examples/tgas/tgas_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\tgas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\tgas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE48963-7B56-4BBB-8F20-CC912FECA1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC2DC73-94CA-43C2-8B1C-9BD800D33E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2070" windowWidth="18510" windowHeight="12270" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="675" windowWidth="17295" windowHeight="12525" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="tgas_c0" localSheetId="8">ResourcesCost!$A$1:$C$2</definedName>
     <definedName name="tgas_flows" localSheetId="2">Flows!$A$1:$B$10</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
-    <definedName name="tgas_processes" localSheetId="3">Processes!$A$1:$E$6</definedName>
+    <definedName name="tgas_processes" localSheetId="3">Processes!$A$1:$D$6</definedName>
     <definedName name="tgas_values" localSheetId="4">Exergy!$A$1:$F$10</definedName>
     <definedName name="tgas_wastes" localSheetId="7">WasteAllocation!$A$1:$F$2</definedName>
     <definedName name="tgas_zval" localSheetId="8">ResourcesCost!$A$3:$C$7</definedName>
@@ -125,14 +125,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>fuel</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>COMB</t>
   </si>
   <si>
-    <t>Combustor</t>
-  </si>
-  <si>
     <t>B5</t>
   </si>
   <si>
@@ -157,15 +151,9 @@
     <t>COMP</t>
   </si>
   <si>
-    <t>Compressor</t>
-  </si>
-  <si>
     <t>GTRB</t>
   </si>
   <si>
-    <t>Turbine</t>
-  </si>
-  <si>
     <t>HRSG</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
   </si>
   <si>
     <t>STCK</t>
-  </si>
-  <si>
-    <t>Stack</t>
   </si>
   <si>
     <t>B4</t>
@@ -826,70 +811,70 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,79 +901,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1010,22 +995,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,93 +1022,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1102,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E6</xm:sqref>
+          <xm:sqref>D2:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1167,27 +1133,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>36620</v>
@@ -1210,7 +1176,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>9512</v>
@@ -1233,7 +1199,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>32990</v>
@@ -1256,7 +1222,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>11707</v>
@@ -1279,7 +1245,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>835.3</v>
@@ -1302,7 +1268,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>10225</v>
@@ -1325,7 +1291,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -1348,7 +1314,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>7168</v>
@@ -1371,7 +1337,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>835.3</v>
@@ -1402,7 +1368,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,18 +1384,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1438,12 +1404,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1452,12 +1418,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1466,12 +1432,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1480,12 +1446,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1494,12 +1460,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1508,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1534,18 +1500,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1584,12 +1550,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.75</v>
@@ -1597,7 +1563,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -1605,7 +1571,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1613,7 +1579,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1628,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1646,24 +1612,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1.32</v>
@@ -1677,10 +1643,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>141.91999999999999</v>
@@ -1694,10 +1660,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>1216.3800000000001</v>
@@ -1711,10 +1677,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>1662.4</v>
@@ -1728,10 +1694,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <f>1076.47</f>
@@ -1746,10 +1712,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>0</v>

--- a/Examples/tgas/tgas_model.xlsx
+++ b/Examples/tgas/tgas_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\tgas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC2DC73-94CA-43C2-8B1C-9BD800D33E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA64E46-6037-4BFE-B20C-F75B424BF5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="675" windowWidth="17295" windowHeight="12525" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="345" windowWidth="17265" windowHeight="12525" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="8" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>key</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>TGASR</t>
+  </si>
+  <si>
+    <t>WN95</t>
+  </si>
+  <si>
+    <t>TP5</t>
   </si>
 </sst>
 </file>
@@ -886,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1112,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H7" sqref="H7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1134,7 @@
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,10 +1154,16 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1165,16 +1177,22 @@
         <v>36939</v>
       </c>
       <c r="E2">
-        <v>36914</v>
+        <v>36903</v>
       </c>
       <c r="F2">
         <v>36905</v>
       </c>
       <c r="G2">
+        <v>35598</v>
+      </c>
+      <c r="H2">
         <v>36620</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>36620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1188,16 +1206,22 @@
         <v>9686</v>
       </c>
       <c r="E3">
-        <v>9589</v>
+        <v>9381</v>
       </c>
       <c r="F3">
         <v>9903</v>
       </c>
       <c r="G3">
+        <v>9310</v>
+      </c>
+      <c r="H3">
         <v>9512</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>9512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1211,16 +1235,22 @@
         <v>33389</v>
       </c>
       <c r="E4">
-        <v>33221</v>
+        <v>33010</v>
       </c>
       <c r="F4">
         <v>33419</v>
       </c>
       <c r="G4">
+        <v>32072</v>
+      </c>
+      <c r="H4">
         <v>32990</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>32990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1234,16 +1264,22 @@
         <v>11848</v>
       </c>
       <c r="E5">
-        <v>11854</v>
+        <v>11874</v>
       </c>
       <c r="F5">
         <v>11673</v>
       </c>
       <c r="G5">
+        <v>11463</v>
+      </c>
+      <c r="H5">
         <v>11707</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>11707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1251,22 +1287,28 @@
         <v>835.3</v>
       </c>
       <c r="C6">
-        <v>1073</v>
+        <v>826.2</v>
       </c>
       <c r="D6">
-        <v>917.9</v>
+        <v>845.9</v>
       </c>
       <c r="E6">
-        <v>913.5</v>
+        <v>813.8</v>
       </c>
       <c r="F6">
-        <v>888.2</v>
+        <v>967.3</v>
       </c>
       <c r="G6">
+        <v>832.4</v>
+      </c>
+      <c r="H6">
+        <v>929.7</v>
+      </c>
+      <c r="I6">
         <v>11707</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1280,16 +1322,22 @@
         <v>10470</v>
       </c>
       <c r="E7">
-        <v>10307</v>
+        <v>10090</v>
       </c>
       <c r="F7">
         <v>10645</v>
       </c>
       <c r="G7">
+        <v>10038</v>
+      </c>
+      <c r="H7">
         <v>10225</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1309,10 +1357,16 @@
         <v>10000</v>
       </c>
       <c r="G8">
+        <v>9500</v>
+      </c>
+      <c r="H8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1320,22 +1374,28 @@
         <v>7168</v>
       </c>
       <c r="C9">
-        <v>7168</v>
+        <v>7457</v>
       </c>
       <c r="D9">
-        <v>7168</v>
+        <v>7254</v>
       </c>
       <c r="E9">
-        <v>7168</v>
+        <v>7288</v>
       </c>
       <c r="F9">
-        <v>7168</v>
+        <v>7074</v>
       </c>
       <c r="G9">
+        <v>7010</v>
+      </c>
+      <c r="H9">
+        <v>7056</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1343,18 +1403,24 @@
         <v>835.3</v>
       </c>
       <c r="C10">
-        <v>1073</v>
+        <v>826.2</v>
       </c>
       <c r="D10">
-        <v>917.9</v>
+        <v>845.9</v>
       </c>
       <c r="E10">
-        <v>913.5</v>
+        <v>813.8</v>
       </c>
       <c r="F10">
-        <v>888.2</v>
+        <v>967.3</v>
       </c>
       <c r="G10">
+        <v>832.4</v>
+      </c>
+      <c r="H10">
+        <v>929.7</v>
+      </c>
+      <c r="I10">
         <v>11707</v>
       </c>
     </row>
@@ -1486,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D646ED9F-9FB5-47E5-8813-A9DAAB53306B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Examples/tgas/tgas_model.xlsx
+++ b/Examples/tgas/tgas_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\tgas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\tgas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA64E46-6037-4BFE-B20C-F75B424BF5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21649C1-3C6B-4F50-AF03-75318160F6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="345" windowWidth="17265" windowHeight="12525" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="tgas_c0" localSheetId="8">ResourcesCost!$A$1:$C$2</definedName>
     <definedName name="tgas_flows" localSheetId="2">Flows!$A$1:$B$10</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
-    <definedName name="tgas_processes" localSheetId="3">Processes!$A$1:$D$6</definedName>
+    <definedName name="tgas_processes" localSheetId="3">Processes!$A$1:$B$6</definedName>
     <definedName name="tgas_values" localSheetId="4">Exergy!$A$1:$F$10</definedName>
     <definedName name="tgas_wastes" localSheetId="7">WasteAllocation!$A$1:$F$2</definedName>
     <definedName name="tgas_zval" localSheetId="8">ResourcesCost!$A$3:$C$7</definedName>
@@ -1003,14 +1003,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,13 +1034,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,13 +1048,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,13 +1062,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,13 +1090,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1552,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D646ED9F-9FB5-47E5-8813-A9DAAB53306B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
